--- a/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/devcon/resource/bg_pl5.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/devcon/resource/bg_pl5.xlsx
@@ -368,20 +368,20 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -407,15 +407,15 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <f>INT(C3*31/7)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
         <f>INT(B3*31/7)</f>
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f>INT(D3*31/7)</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f>INT(C3*31/7)</f>
         <v>0</v>
       </c>
     </row>
@@ -424,24 +424,24 @@
         <v>1</v>
       </c>
       <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
       <c r="F4">
-        <f t="shared" ref="F4:F23" si="0">INT(B4*31/7)</f>
+        <f t="shared" ref="F4:F18" si="0">INT(C4*31/7)</f>
         <v>31</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G23" si="1">INT(D4*31/7)</f>
+        <f>INT(B4*31/7)</f>
         <v>22</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H23" si="2">INT(C4*31/7)</f>
+        <f t="shared" ref="H4:H18" si="1">INT(D4*31/7)</f>
         <v>8</v>
       </c>
     </row>
@@ -450,24 +450,24 @@
         <v>2</v>
       </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f>INT(B5*31/7)</f>
         <v>26</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -476,25 +476,25 @@
         <v>3</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="F6">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>INT(B6*31/7)</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
         <v>26</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -502,24 +502,24 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f>INT(B7*31/7)</f>
         <v>13</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -528,24 +528,24 @@
         <v>5</v>
       </c>
       <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f>INT(B8*31/7)</f>
         <v>17</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
@@ -554,24 +554,24 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f>INT(B9*31/7)</f>
         <v>8</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -593,11 +593,11 @@
         <v>13</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f>INT(B10*31/7)</f>
         <v>13</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -606,24 +606,24 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f>INT(B11*31/7)</f>
         <v>4</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -645,11 +645,11 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f>INT(B12*31/7)</f>
         <v>4</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -661,21 +661,21 @@
         <v>5</v>
       </c>
       <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f>INT(B13*31/7)</f>
         <v>22</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -684,10 +684,10 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -697,11 +697,11 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f>INT(B14*31/7)</f>
         <v>4</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -713,21 +713,21 @@
         <v>0</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f>INT(B15*31/7)</f>
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -739,21 +739,21 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f>INT(B16*31/7)</f>
         <v>0</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -765,21 +765,21 @@
         <v>1</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>6</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f>INT(B17*31/7)</f>
         <v>4</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
@@ -801,11 +801,11 @@
         <v>31</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f>INT(B18*31/7)</f>
         <v>31</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
